--- a/project_files/presentations/excel_graphs.xlsx
+++ b/project_files/presentations/excel_graphs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Project_Jessica\Isoform_Usage_Project\git repo\project_files\presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4330E-6665-4EEE-A725-61C31E32F582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F3014-3EA7-4669-9FB0-5CBB4026F94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21525" yWindow="3495" windowWidth="10125" windowHeight="3300" firstSheet="1" activeTab="1" xr2:uid="{07AC9398-CCE3-4C16-A2DE-C1A52D452D24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{07AC9398-CCE3-4C16-A2DE-C1A52D452D24}"/>
   </bookViews>
   <sheets>
-    <sheet name="overlaps with reference" sheetId="1" r:id="rId1"/>
+    <sheet name="junction ontology - transcripts" sheetId="1" r:id="rId1"/>
     <sheet name="NMD min exon sweep" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,12 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
-  <si>
-    <t>total number of unique junction structures queried: 630</t>
-  </si>
-  <si>
-    <t>total number of unique differential  junction structures with any sort of transcript-level annotation: 628</t>
-  </si>
   <si>
     <t>Protein coding transcript</t>
   </si>
@@ -87,12 +81,6 @@
     <t>PSI-Sigma</t>
   </si>
   <si>
-    <t>total number of unique exons queried: 3060</t>
-  </si>
-  <si>
-    <t>total number of unique differential plausible exons with any sort of transcript-level annotation: 3058</t>
-  </si>
-  <si>
     <t>gtf</t>
   </si>
   <si>
@@ -109,6 +97,18 @@
   </si>
   <si>
     <t>number of NMD in common with reference</t>
+  </si>
+  <si>
+    <t>total number of unique differential  junction structures with any sort of transcript-level annotation</t>
+  </si>
+  <si>
+    <t>total number of unique junction structures queried</t>
+  </si>
+  <si>
+    <t>total number of unique exons queried</t>
+  </si>
+  <si>
+    <t>total number of unique differential plausible exons with any sort of transcript-level annotation</t>
   </si>
 </sst>
 </file>
@@ -147,9 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,7 +208,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Differential Junction</a:t>
+              <a:t>Differential Region</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -268,7 +269,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$A$4:$A$9</c:f>
+              <c:f>'junction ontology - transcripts'!$A$4:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -294,27 +295,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$B$4:$B$9</c:f>
+              <c:f>'junction ontology - transcripts'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>95.859872611464993</c:v>
+                  <c:v>95.594262295082004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.089171974522301</c:v>
+                  <c:v>45.184426229508198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.11464968152866</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.910828025477699</c:v>
+                  <c:v>37.192622950819697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.235668789808898</c:v>
+                  <c:v>52.868852459016402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.541401273885398</c:v>
+                  <c:v>78.381147540983605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,28 +598,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$A$17:$A$23</c:f>
+              <c:f>'junction ontology - transcripts'!$A$18:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Any sort of protein-level annotation</c:v>
+                  <c:v>Interpro domain</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Interpro domain</c:v>
+                  <c:v>Low complexity region</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Low complexity region</c:v>
+                  <c:v>Disordered region</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Disordered region</c:v>
+                  <c:v>Coiled-coiled domain</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Coiled-coiled domain</c:v>
+                  <c:v>signalp domain</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>signalp domain</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>tmhmm domain</c:v>
                 </c:pt>
               </c:strCache>
@@ -626,30 +624,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$B$17:$B$23</c:f>
+              <c:f>'junction ontology - transcripts'!$B$18:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>70.541401273885398</c:v>
+                  <c:v>93.292682926829301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.173814898419899</c:v>
+                  <c:v>56.910569105691103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.607223476298</c:v>
+                  <c:v>48.577235772357703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.668171557562101</c:v>
+                  <c:v>16.260162601626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1602708803611699</c:v>
+                  <c:v>2.6422764227642301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.451467268623025</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3544018058690701</c:v>
+                  <c:v>9.5528455284552791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +918,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$O$4:$O$9</c:f>
+              <c:f>'junction ontology - transcripts'!$T$4:$T$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -949,27 +944,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$P$4:$P$9</c:f>
+              <c:f>'junction ontology - transcripts'!$U$4:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>89.110529758011793</c:v>
+                  <c:v>72.645914396887207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.335513407455899</c:v>
+                  <c:v>30.544747081712099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8103335513406997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.384565075212599</c:v>
+                  <c:v>21.245136186770399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.6030085022891</c:v>
+                  <c:v>31.050583657587499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.903204708960097</c:v>
+                  <c:v>64.630350194552506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,28 +1248,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$O$17:$O$23</c:f>
+              <c:f>'junction ontology - transcripts'!$T$18:$T$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Any sort of protein-level annotation</c:v>
+                  <c:v>Interpro domain</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Interpro domain</c:v>
+                  <c:v>Low complexity region</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Low complexity region</c:v>
+                  <c:v>Disordered region</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Disordered region</c:v>
+                  <c:v>Coiled-coiled domain</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Coiled-coiled domain</c:v>
+                  <c:v>signalp domain</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>signalp domain</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>tmhmm domain</c:v>
                 </c:pt>
               </c:strCache>
@@ -1282,30 +1274,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$P$17:$P$23</c:f>
+              <c:f>'junction ontology - transcripts'!$U$18:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>61.903204708960097</c:v>
+                  <c:v>89.281364190012198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.756471209720004</c:v>
+                  <c:v>49.939098660170501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.314844162704699</c:v>
+                  <c:v>39.342265529841697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.748547279450602</c:v>
+                  <c:v>16.199756394640701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9239302694136304</c:v>
+                  <c:v>1.4616321559074299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3734812466983599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1806656101426301</c:v>
+                  <c:v>11.5712545676005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1642,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$S$4:$S$9</c:f>
+              <c:f>'junction ontology - transcripts'!$Z$4:$Z$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1679,7 +1668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$U$4:$U$9</c:f>
+              <c:f>'junction ontology - transcripts'!$AB$4:$AB$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1978,7 +1967,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Differential Junction</a:t>
+              <a:t>Differential </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Region</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2096,7 +2091,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$A$4:$A$9</c:f>
+              <c:f>'junction ontology - transcripts'!$A$4:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2122,7 +2117,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$C$4:$C$9</c:f>
+              <c:f>'junction ontology - transcripts'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2130,19 +2125,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.166112956810629</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1627906976744158</c:v>
+                  <c:v>47.26688102893889</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.073089700996661</c:v>
+                  <c:v>38.906752411575575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.714285714285687</c:v>
+                  <c:v>55.305466237942106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.588039867109657</c:v>
+                  <c:v>81.993569131832757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,7 +2524,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'overlaps with reference'!$O$4:$O$9</c:f>
+              <c:f>'junction ontology - transcripts'!$T$4:$T$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2555,7 +2550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'overlaps with reference'!$Q$4:$Q$9</c:f>
+              <c:f>'junction ontology - transcripts'!$V$4:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2563,19 +2558,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.853211009174352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11009174311926551</c:v>
+                  <c:v>42.046063202999484</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.853211009174352</c:v>
+                  <c:v>29.24477771826454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.58715596330277</c:v>
+                  <c:v>42.742367434386622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.467889908256851</c:v>
+                  <c:v>88.966256025709598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8262,16 +8257,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>20171</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62193</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143996</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45384</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>138393</xdr:rowOff>
+      <xdr:rowOff>71158</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8298,16 +8293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43983</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>139514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>758638</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>25214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8334,16 +8329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3017941</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6398559</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>397153</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>144993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8370,16 +8365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3017941</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6376147</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>374741</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>32934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8406,16 +8401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6722</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>80843</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>607518</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8443,15 +8438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1442357</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>1385207</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8480,16 +8475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6572250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>360990</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>143276</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8857,335 +8852,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723BB3B5-0BEC-4250-9521-C3AC5B653125}">
-  <dimension ref="A3:U23"/>
+  <dimension ref="A3:AB23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="97.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>95.859872611464993</v>
+        <v>95.594262295082004</v>
       </c>
       <c r="C4" s="1">
         <f>B4*100/$B$4</f>
         <v>100</v>
       </c>
-      <c r="O4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>89.110529758011793</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>P4*100/$P$4</f>
+      <c r="D4">
+        <f>B4*$B$14*0.01</f>
+        <v>933.00000000000034</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>72.645914396887207</v>
+      </c>
+      <c r="V4" s="1">
+        <f>U4*100/$U$4</f>
         <v>100</v>
       </c>
-      <c r="S4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4">
+      <c r="W4">
+        <f>U4*$U$14*0.01</f>
+        <v>1867.0000000000011</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>192231909</v>
       </c>
-      <c r="U4" s="1">
-        <f>T4*100/$T$4</f>
+      <c r="AB4" s="1">
+        <f>AA4*100/$AA$4</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>48.089171974522301</v>
+        <v>45.184426229508198</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="0">B5*100/$B$4</f>
-        <v>50.166112956810629</v>
-      </c>
-      <c r="O5" t="s">
+        <v>47.26688102893889</v>
+      </c>
+      <c r="D5">
+        <f>B5*$B$14*0.01</f>
+        <v>441</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>30.544747081712099</v>
+      </c>
+      <c r="V5" s="1">
+        <f>U5*100/$U$4</f>
+        <v>42.046063202999484</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W9" si="1">U5*$U$14*0.01</f>
+        <v>785.00000000000102</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>86505126</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>AA5*100/$AA$4</f>
+        <v>45.000398971223866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D5:D9" si="2">B6*$B$14*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <f>U6*100/$U$4</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>153863</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>AA6*100/$AA$4</f>
+        <v>8.0040301737834788E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>53.335513407455899</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" ref="Q5:Q9" si="1">P5*100/$P$4</f>
-        <v>59.853211009174352</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>86505126</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5:U9" si="2">T5*100/$T$4</f>
-        <v>45.000398971223866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.11464968152866</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1627906976744158</v>
-      </c>
-      <c r="O6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>9.8103335513406997E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11009174311926551</v>
-      </c>
-      <c r="S6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>153863</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0040301737834788E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7">
-        <v>26.910828025477699</v>
+        <v>37.192622950819697</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>28.073089700996661</v>
-      </c>
-      <c r="O7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>28.384565075212599</v>
-      </c>
-      <c r="Q7" s="1">
+        <v>38.906752411575575</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>363.00000000000023</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>21.245136186770399</v>
+      </c>
+      <c r="V7" s="1">
+        <f>U7*100/$U$4</f>
+        <v>29.24477771826454</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="1"/>
-        <v>31.853211009174352</v>
-      </c>
-      <c r="S7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7">
+        <v>545.99999999999932</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7">
         <v>85644500</v>
       </c>
-      <c r="U7" s="1">
-        <f t="shared" si="2"/>
+      <c r="AB7" s="1">
+        <f>AA7*100/$AA$4</f>
         <v>44.552697023884832</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>34.235668789808898</v>
+        <v>52.868852459016402</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>35.714285714285687</v>
-      </c>
-      <c r="O8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>32.6030085022891</v>
-      </c>
-      <c r="Q8" s="1">
+        <v>55.305466237942106</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>516.00000000000011</v>
+      </c>
+      <c r="T8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>31.050583657587499</v>
+      </c>
+      <c r="V8" s="1">
+        <f>U8*100/$U$4</f>
+        <v>42.742367434386622</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="1"/>
-        <v>36.58715596330277</v>
-      </c>
-      <c r="S8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8">
+        <v>797.99999999999875</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8">
         <v>9327453</v>
       </c>
-      <c r="U8" s="1">
-        <f t="shared" si="2"/>
+      <c r="AB8" s="1">
+        <f>AA8*100/$AA$4</f>
         <v>4.8521876771249248</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>70.541401273885398</v>
+        <v>78.381147540983605</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>73.588039867109657</v>
-      </c>
-      <c r="O9" t="s">
+        <v>81.993569131832757</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>765</v>
+      </c>
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>64.630350194552506</v>
+      </c>
+      <c r="V9" s="1">
+        <f>U9*100/$U$4</f>
+        <v>88.966256025709598</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>1660.9999999999995</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>114072808</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>AA9*100/$AA$4</f>
+        <v>59.34124495429112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1062</v>
+      </c>
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>976</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="P9">
-        <v>61.903204708960097</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="1"/>
-        <v>69.467889908256851</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="B17">
+        <v>50.409836065573799</v>
+      </c>
+      <c r="C17">
+        <v>492</v>
+      </c>
+      <c r="T17" t="s">
         <v>7</v>
       </c>
-      <c r="T9">
-        <v>114072808</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="2"/>
-        <v>59.34124495429112</v>
+      <c r="U17">
+        <v>31.945525291828801</v>
+      </c>
+      <c r="V17">
+        <v>821</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>93.292682926829301</v>
+      </c>
+      <c r="C18">
+        <f>$C$17*B18*0.01</f>
+        <v>459.00000000000017</v>
+      </c>
+      <c r="T18" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18">
+        <v>89.281364190012198</v>
+      </c>
+      <c r="V18">
+        <f>$V$17*U18*0.01</f>
+        <v>733.00000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>56.910569105691103</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C23" si="3">$C$17*B19*0.01</f>
+        <v>280.00000000000023</v>
+      </c>
+      <c r="T19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>49.939098660170501</v>
+      </c>
+      <c r="V19">
+        <f>$V$17*U19*0.01</f>
+        <v>409.99999999999977</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>70.541401273885398</v>
-      </c>
-      <c r="O17" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17">
-        <v>61.903204708960097</v>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>48.577235772357703</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>238.99999999999989</v>
+      </c>
+      <c r="T20" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>39.342265529841697</v>
+      </c>
+      <c r="V20">
+        <f>$V$17*U20*0.01</f>
+        <v>323.00000000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>61.173814898419899</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="B21">
+        <v>16.260162601626</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>79.999999999999915</v>
+      </c>
+      <c r="T21" t="s">
         <v>11</v>
       </c>
-      <c r="P18">
-        <v>76.756471209720004</v>
+      <c r="U21">
+        <v>16.199756394640701</v>
+      </c>
+      <c r="V21">
+        <f>$V$17*U21*0.01</f>
+        <v>133.00000000000017</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>17.607223476298</v>
-      </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19">
-        <v>28.314844162704699</v>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2.6422764227642301</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>13.000000000000012</v>
+      </c>
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <v>1.4616321559074299</v>
+      </c>
+      <c r="V22">
+        <f>$V$17*U22*0.01</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
-        <v>28.668171557562101</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="B23">
+        <v>9.5528455284552791</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>46.999999999999972</v>
+      </c>
+      <c r="T23" t="s">
         <v>12</v>
       </c>
-      <c r="P20">
-        <v>31.748547279450602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>3.1602708803611699</v>
-      </c>
-      <c r="O21" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21">
-        <v>7.9239302694136304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>0.451467268623025</v>
-      </c>
-      <c r="O22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22">
-        <v>1.3734812466983599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>1.3544018058690701</v>
-      </c>
-      <c r="O23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23">
-        <v>6.1806656101426301</v>
+      <c r="U23">
+        <v>11.5712545676005</v>
+      </c>
+      <c r="V23">
+        <f>$V$17*U23*0.01</f>
+        <v>95.000000000000114</v>
       </c>
     </row>
   </sheetData>
@@ -9199,7 +9310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5F7B4-8447-4CC3-B5DC-FAAB29F12C1B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -9213,7 +9324,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9232,7 +9343,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>10.75</v>
@@ -9249,7 +9360,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>2364</v>
@@ -9266,7 +9377,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>6.24</v>
@@ -9283,7 +9394,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>9.7200000000000006</v>
